--- a/data/raw/election/voters-age-sex-education/2023/Kastamonu.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Kastamonu.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="49">
   <si>
     <t>Kastamonu</t>
   </si>
@@ -160,6 +161,12 @@
   </si>
   <si>
     <t>Tosya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -693,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -712,6 +719,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1041,10 +1057,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N524"/>
+  <dimension ref="A1:N526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P467" sqref="P467"/>
+    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="K448" sqref="K448:K472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,52 +1075,52 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2110,8 +2126,8 @@
       <c r="D30" s="5">
         <v>173</v>
       </c>
-      <c r="E30" s="5">
-        <v>1.3180000000000001</v>
+      <c r="E30" s="7">
+        <v>1318</v>
       </c>
       <c r="F30" s="5">
         <v>257</v>
@@ -2134,15 +2150,15 @@
       <c r="L30" s="5">
         <v>47</v>
       </c>
-      <c r="M30" s="5">
-        <v>3.4550000000000001</v>
+      <c r="M30" s="7">
+        <v>3455</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -3172,15 +3188,15 @@
       <c r="L56" s="5">
         <v>18</v>
       </c>
-      <c r="M56" s="5">
-        <v>2.5539999999999998</v>
+      <c r="M56" s="7">
+        <v>2554</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -4171,8 +4187,8 @@
       <c r="L81" s="4">
         <v>11</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.198</v>
+      <c r="M81" s="7">
+        <v>1198</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4183,23 +4199,23 @@
       <c r="C82" s="5">
         <v>702</v>
       </c>
-      <c r="D82" s="5">
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="E82" s="5">
-        <v>5.7610000000000001</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1.204</v>
-      </c>
-      <c r="G82" s="5">
-        <v>2</v>
-      </c>
-      <c r="H82" s="5">
-        <v>2.5960000000000001</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1.446</v>
+      <c r="D82" s="7">
+        <v>1039</v>
+      </c>
+      <c r="E82" s="7">
+        <v>5761</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1204</v>
+      </c>
+      <c r="G82" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H82" s="7">
+        <v>2596</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1446</v>
       </c>
       <c r="J82" s="5">
         <v>93</v>
@@ -4210,15 +4226,15 @@
       <c r="L82" s="5">
         <v>75</v>
       </c>
-      <c r="M82" s="5">
-        <v>14.93</v>
+      <c r="M82" s="7">
+        <v>14930</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -5224,8 +5240,8 @@
       <c r="D108" s="5">
         <v>517</v>
       </c>
-      <c r="E108" s="5">
-        <v>2.0209999999999999</v>
+      <c r="E108" s="7">
+        <v>2021</v>
       </c>
       <c r="F108" s="5">
         <v>498</v>
@@ -5233,8 +5249,8 @@
       <c r="G108" s="5">
         <v>744</v>
       </c>
-      <c r="H108" s="5">
-        <v>1.018</v>
+      <c r="H108" s="7">
+        <v>1018</v>
       </c>
       <c r="I108" s="5">
         <v>606</v>
@@ -5248,15 +5264,15 @@
       <c r="L108" s="5">
         <v>50</v>
       </c>
-      <c r="M108" s="5">
-        <v>6.1369999999999996</v>
+      <c r="M108" s="7">
+        <v>6137</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -6262,8 +6278,8 @@
       <c r="D134" s="5">
         <v>589</v>
       </c>
-      <c r="E134" s="5">
-        <v>3.0750000000000002</v>
+      <c r="E134" s="7">
+        <v>3075</v>
       </c>
       <c r="F134" s="5">
         <v>609</v>
@@ -6271,8 +6287,8 @@
       <c r="G134" s="5">
         <v>849</v>
       </c>
-      <c r="H134" s="5">
-        <v>1.2729999999999999</v>
+      <c r="H134" s="7">
+        <v>1273</v>
       </c>
       <c r="I134" s="5">
         <v>765</v>
@@ -6286,15 +6302,15 @@
       <c r="L134" s="5">
         <v>64</v>
       </c>
-      <c r="M134" s="5">
-        <v>7.6159999999999997</v>
+      <c r="M134" s="7">
+        <v>7616</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -7006,8 +7022,8 @@
       <c r="L152" s="4">
         <v>25</v>
       </c>
-      <c r="M152" s="5">
-        <v>1.1060000000000001</v>
+      <c r="M152" s="7">
+        <v>1106</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7045,8 +7061,8 @@
       <c r="L153" s="4">
         <v>11</v>
       </c>
-      <c r="M153" s="5">
-        <v>1.0489999999999999</v>
+      <c r="M153" s="7">
+        <v>1049</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7086,8 +7102,8 @@
       <c r="L154" s="4">
         <v>17</v>
       </c>
-      <c r="M154" s="5">
-        <v>1.1339999999999999</v>
+      <c r="M154" s="7">
+        <v>1134</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7125,8 +7141,8 @@
       <c r="L155" s="4">
         <v>24</v>
       </c>
-      <c r="M155" s="5">
-        <v>1.113</v>
+      <c r="M155" s="7">
+        <v>1113</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7246,8 +7262,8 @@
       <c r="L158" s="4">
         <v>19</v>
       </c>
-      <c r="M158" s="5">
-        <v>1.1100000000000001</v>
+      <c r="M158" s="7">
+        <v>1110</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7285,8 +7301,8 @@
       <c r="L159" s="4">
         <v>33</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.4930000000000001</v>
+      <c r="M159" s="7">
+        <v>1493</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7294,26 +7310,26 @@
         <v>12</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.407</v>
-      </c>
-      <c r="D160" s="5">
-        <v>1.881</v>
-      </c>
-      <c r="E160" s="5">
-        <v>6.6779999999999999</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.5569999999999999</v>
-      </c>
-      <c r="G160" s="5">
-        <v>2.0219999999999998</v>
-      </c>
-      <c r="H160" s="5">
-        <v>2.984</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.6379999999999999</v>
+      <c r="C160" s="7">
+        <v>1407</v>
+      </c>
+      <c r="D160" s="7">
+        <v>1881</v>
+      </c>
+      <c r="E160" s="7">
+        <v>6678</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1557</v>
+      </c>
+      <c r="G160" s="7">
+        <v>2022</v>
+      </c>
+      <c r="H160" s="7">
+        <v>2984</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1638</v>
       </c>
       <c r="J160" s="5">
         <v>146</v>
@@ -7324,15 +7340,15 @@
       <c r="L160" s="5">
         <v>267</v>
       </c>
-      <c r="M160" s="5">
-        <v>18.600000000000001</v>
+      <c r="M160" s="7">
+        <v>18600</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -8338,8 +8354,8 @@
       <c r="D186" s="5">
         <v>556</v>
       </c>
-      <c r="E186" s="5">
-        <v>2.1970000000000001</v>
+      <c r="E186" s="7">
+        <v>2197</v>
       </c>
       <c r="F186" s="5">
         <v>427</v>
@@ -8362,15 +8378,15 @@
       <c r="L186" s="5">
         <v>116</v>
       </c>
-      <c r="M186" s="5">
-        <v>5.7759999999999998</v>
+      <c r="M186" s="7">
+        <v>5776</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -9376,8 +9392,8 @@
       <c r="D212" s="5">
         <v>489</v>
       </c>
-      <c r="E212" s="5">
-        <v>2.13</v>
+      <c r="E212" s="7">
+        <v>2130</v>
       </c>
       <c r="F212" s="5">
         <v>584</v>
@@ -9385,8 +9401,8 @@
       <c r="G212" s="5">
         <v>899</v>
       </c>
-      <c r="H212" s="5">
-        <v>1.546</v>
+      <c r="H212" s="7">
+        <v>1546</v>
       </c>
       <c r="I212" s="5">
         <v>879</v>
@@ -9400,15 +9416,15 @@
       <c r="L212" s="5">
         <v>21</v>
       </c>
-      <c r="M212" s="5">
-        <v>6.931</v>
+      <c r="M212" s="7">
+        <v>6931</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -10414,20 +10430,20 @@
       <c r="D238" s="5">
         <v>673</v>
       </c>
-      <c r="E238" s="5">
-        <v>3.827</v>
+      <c r="E238" s="7">
+        <v>3827</v>
       </c>
       <c r="F238" s="5">
         <v>902</v>
       </c>
-      <c r="G238" s="5">
-        <v>1.2849999999999999</v>
-      </c>
-      <c r="H238" s="5">
-        <v>1.9730000000000001</v>
-      </c>
-      <c r="I238" s="5">
-        <v>1.07</v>
+      <c r="G238" s="7">
+        <v>1285</v>
+      </c>
+      <c r="H238" s="7">
+        <v>1973</v>
+      </c>
+      <c r="I238" s="7">
+        <v>1070</v>
       </c>
       <c r="J238" s="5">
         <v>65</v>
@@ -10438,15 +10454,15 @@
       <c r="L238" s="5">
         <v>43</v>
       </c>
-      <c r="M238" s="5">
-        <v>10.125999999999999</v>
+      <c r="M238" s="7">
+        <v>10126</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -11452,8 +11468,8 @@
       <c r="D264" s="5">
         <v>376</v>
       </c>
-      <c r="E264" s="5">
-        <v>1.607</v>
+      <c r="E264" s="7">
+        <v>1607</v>
       </c>
       <c r="F264" s="5">
         <v>624</v>
@@ -11476,15 +11492,15 @@
       <c r="L264" s="5">
         <v>39</v>
       </c>
-      <c r="M264" s="5">
-        <v>4.5339999999999998</v>
+      <c r="M264" s="7">
+        <v>4534</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="11"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -12490,8 +12506,8 @@
       <c r="D290" s="5">
         <v>287</v>
       </c>
-      <c r="E290" s="5">
-        <v>1.298</v>
+      <c r="E290" s="7">
+        <v>1298</v>
       </c>
       <c r="F290" s="5">
         <v>335</v>
@@ -12514,15 +12530,15 @@
       <c r="L290" s="5">
         <v>18</v>
       </c>
-      <c r="M290" s="5">
-        <v>3.55</v>
+      <c r="M290" s="7">
+        <v>3550</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="11"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -13528,8 +13544,8 @@
       <c r="D316" s="5">
         <v>331</v>
       </c>
-      <c r="E316" s="5">
-        <v>1.327</v>
+      <c r="E316" s="7">
+        <v>1327</v>
       </c>
       <c r="F316" s="5">
         <v>374</v>
@@ -13552,15 +13568,15 @@
       <c r="L316" s="5">
         <v>13</v>
       </c>
-      <c r="M316" s="5">
-        <v>4.3460000000000001</v>
+      <c r="M316" s="7">
+        <v>4346</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="11"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -14560,26 +14576,26 @@
         <v>12</v>
       </c>
       <c r="B342" s="6"/>
-      <c r="C342" s="5">
-        <v>1.046</v>
+      <c r="C342" s="7">
+        <v>1046</v>
       </c>
       <c r="D342" s="5">
         <v>892</v>
       </c>
-      <c r="E342" s="5">
-        <v>5.2450000000000001</v>
-      </c>
-      <c r="F342" s="5">
-        <v>1.3420000000000001</v>
-      </c>
-      <c r="G342" s="5">
-        <v>2.0920000000000001</v>
-      </c>
-      <c r="H342" s="5">
-        <v>3.1890000000000001</v>
-      </c>
-      <c r="I342" s="5">
-        <v>1.8779999999999999</v>
+      <c r="E342" s="7">
+        <v>5245</v>
+      </c>
+      <c r="F342" s="7">
+        <v>1342</v>
+      </c>
+      <c r="G342" s="7">
+        <v>2092</v>
+      </c>
+      <c r="H342" s="7">
+        <v>3189</v>
+      </c>
+      <c r="I342" s="7">
+        <v>1878</v>
       </c>
       <c r="J342" s="5">
         <v>193</v>
@@ -14590,15 +14606,15 @@
       <c r="L342" s="5">
         <v>97</v>
       </c>
-      <c r="M342" s="5">
-        <v>15.988</v>
+      <c r="M342" s="7">
+        <v>15988</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B343" s="8"/>
+      <c r="B343" s="11"/>
       <c r="C343" s="2" t="s">
         <v>2</v>
       </c>
@@ -14652,14 +14668,14 @@
       <c r="F344" s="4">
         <v>1</v>
       </c>
-      <c r="G344" s="4">
-        <v>1.071</v>
-      </c>
-      <c r="H344" s="4">
-        <v>4.3650000000000002</v>
-      </c>
-      <c r="I344" s="4">
-        <v>1.1519999999999999</v>
+      <c r="G344" s="8">
+        <v>1071</v>
+      </c>
+      <c r="H344" s="8">
+        <v>4365</v>
+      </c>
+      <c r="I344" s="8">
+        <v>1152</v>
       </c>
       <c r="J344" s="4">
         <v>12</v>
@@ -14670,8 +14686,8 @@
       <c r="L344" s="4">
         <v>53</v>
       </c>
-      <c r="M344" s="5">
-        <v>6.66</v>
+      <c r="M344" s="7">
+        <v>6660</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14694,11 +14710,11 @@
       <c r="G345" s="4">
         <v>907</v>
       </c>
-      <c r="H345" s="4">
-        <v>5.165</v>
-      </c>
-      <c r="I345" s="4">
-        <v>1.62</v>
+      <c r="H345" s="8">
+        <v>5165</v>
+      </c>
+      <c r="I345" s="8">
+        <v>1620</v>
       </c>
       <c r="J345" s="4">
         <v>17</v>
@@ -14709,8 +14725,8 @@
       <c r="L345" s="4">
         <v>12</v>
       </c>
-      <c r="M345" s="5">
-        <v>7.7519999999999998</v>
+      <c r="M345" s="7">
+        <v>7752</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14735,11 +14751,11 @@
       <c r="G346" s="4">
         <v>779</v>
       </c>
-      <c r="H346" s="4">
-        <v>1.8069999999999999</v>
-      </c>
-      <c r="I346" s="4">
-        <v>2.0390000000000001</v>
+      <c r="H346" s="8">
+        <v>1807</v>
+      </c>
+      <c r="I346" s="8">
+        <v>2039</v>
       </c>
       <c r="J346" s="4">
         <v>175</v>
@@ -14750,8 +14766,8 @@
       <c r="L346" s="4">
         <v>32</v>
       </c>
-      <c r="M346" s="5">
-        <v>4.8659999999999997</v>
+      <c r="M346" s="7">
+        <v>4866</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14774,11 +14790,11 @@
       <c r="G347" s="4">
         <v>786</v>
       </c>
-      <c r="H347" s="4">
-        <v>1.23</v>
-      </c>
-      <c r="I347" s="4">
-        <v>2.7639999999999998</v>
+      <c r="H347" s="8">
+        <v>1230</v>
+      </c>
+      <c r="I347" s="8">
+        <v>2764</v>
       </c>
       <c r="J347" s="4">
         <v>305</v>
@@ -14789,8 +14805,8 @@
       <c r="L347" s="4">
         <v>7</v>
       </c>
-      <c r="M347" s="5">
-        <v>5.1710000000000003</v>
+      <c r="M347" s="7">
+        <v>5171</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14815,11 +14831,11 @@
       <c r="G348" s="4">
         <v>418</v>
       </c>
-      <c r="H348" s="4">
-        <v>2.016</v>
-      </c>
-      <c r="I348" s="4">
-        <v>2.004</v>
+      <c r="H348" s="8">
+        <v>2016</v>
+      </c>
+      <c r="I348" s="8">
+        <v>2004</v>
       </c>
       <c r="J348" s="4">
         <v>354</v>
@@ -14830,8 +14846,8 @@
       <c r="L348" s="4">
         <v>15</v>
       </c>
-      <c r="M348" s="5">
-        <v>5.3789999999999996</v>
+      <c r="M348" s="7">
+        <v>5379</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14854,11 +14870,11 @@
       <c r="G349" s="4">
         <v>455</v>
       </c>
-      <c r="H349" s="4">
-        <v>1.4359999999999999</v>
-      </c>
-      <c r="I349" s="4">
-        <v>2.2320000000000002</v>
+      <c r="H349" s="8">
+        <v>1436</v>
+      </c>
+      <c r="I349" s="8">
+        <v>2232</v>
       </c>
       <c r="J349" s="4">
         <v>376</v>
@@ -14869,8 +14885,8 @@
       <c r="L349" s="4">
         <v>14</v>
       </c>
-      <c r="M349" s="5">
-        <v>5.4139999999999997</v>
+      <c r="M349" s="7">
+        <v>5414</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -14895,11 +14911,11 @@
       <c r="G350" s="4">
         <v>431</v>
       </c>
-      <c r="H350" s="4">
-        <v>2.165</v>
-      </c>
-      <c r="I350" s="4">
-        <v>1.698</v>
+      <c r="H350" s="8">
+        <v>2165</v>
+      </c>
+      <c r="I350" s="8">
+        <v>1698</v>
       </c>
       <c r="J350" s="4">
         <v>368</v>
@@ -14910,8 +14926,8 @@
       <c r="L350" s="4">
         <v>20</v>
       </c>
-      <c r="M350" s="5">
-        <v>5.6909999999999998</v>
+      <c r="M350" s="7">
+        <v>5691</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -14934,11 +14950,11 @@
       <c r="G351" s="4">
         <v>653</v>
       </c>
-      <c r="H351" s="4">
-        <v>1.631</v>
-      </c>
-      <c r="I351" s="4">
-        <v>1.7949999999999999</v>
+      <c r="H351" s="8">
+        <v>1631</v>
+      </c>
+      <c r="I351" s="8">
+        <v>1795</v>
       </c>
       <c r="J351" s="4">
         <v>326</v>
@@ -14949,8 +14965,8 @@
       <c r="L351" s="4">
         <v>12</v>
       </c>
-      <c r="M351" s="5">
-        <v>6.1020000000000003</v>
+      <c r="M351" s="7">
+        <v>6102</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -14975,11 +14991,11 @@
       <c r="G352" s="4">
         <v>873</v>
       </c>
-      <c r="H352" s="4">
-        <v>2.218</v>
-      </c>
-      <c r="I352" s="4">
-        <v>1.4690000000000001</v>
+      <c r="H352" s="8">
+        <v>2218</v>
+      </c>
+      <c r="I352" s="8">
+        <v>1469</v>
       </c>
       <c r="J352" s="4">
         <v>322</v>
@@ -14990,8 +15006,8 @@
       <c r="L352" s="4">
         <v>10</v>
       </c>
-      <c r="M352" s="5">
-        <v>6.0049999999999999</v>
+      <c r="M352" s="7">
+        <v>6005</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -15005,8 +15021,8 @@
       <c r="D353" s="4">
         <v>23</v>
       </c>
-      <c r="E353" s="4">
-        <v>1.232</v>
+      <c r="E353" s="8">
+        <v>1232</v>
       </c>
       <c r="F353" s="4">
         <v>792</v>
@@ -15014,11 +15030,11 @@
       <c r="G353" s="4">
         <v>938</v>
       </c>
-      <c r="H353" s="4">
-        <v>1.629</v>
-      </c>
-      <c r="I353" s="4">
-        <v>1.3839999999999999</v>
+      <c r="H353" s="8">
+        <v>1629</v>
+      </c>
+      <c r="I353" s="8">
+        <v>1384</v>
       </c>
       <c r="J353" s="4">
         <v>234</v>
@@ -15029,8 +15045,8 @@
       <c r="L353" s="4">
         <v>9</v>
       </c>
-      <c r="M353" s="5">
-        <v>6.3280000000000003</v>
+      <c r="M353" s="7">
+        <v>6328</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15055,11 +15071,11 @@
       <c r="G354" s="4">
         <v>746</v>
       </c>
-      <c r="H354" s="4">
-        <v>1.554</v>
-      </c>
-      <c r="I354" s="4">
-        <v>1.165</v>
+      <c r="H354" s="8">
+        <v>1554</v>
+      </c>
+      <c r="I354" s="8">
+        <v>1165</v>
       </c>
       <c r="J354" s="4">
         <v>220</v>
@@ -15070,8 +15086,8 @@
       <c r="L354" s="4">
         <v>8</v>
       </c>
-      <c r="M354" s="5">
-        <v>4.9909999999999997</v>
+      <c r="M354" s="7">
+        <v>4991</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15085,8 +15101,8 @@
       <c r="D355" s="4">
         <v>28</v>
       </c>
-      <c r="E355" s="4">
-        <v>1.272</v>
+      <c r="E355" s="8">
+        <v>1272</v>
       </c>
       <c r="F355" s="4">
         <v>945</v>
@@ -15094,8 +15110,8 @@
       <c r="G355" s="4">
         <v>821</v>
       </c>
-      <c r="H355" s="4">
-        <v>1.1259999999999999</v>
+      <c r="H355" s="8">
+        <v>1126</v>
       </c>
       <c r="I355" s="4">
         <v>858</v>
@@ -15109,8 +15125,8 @@
       <c r="L355" s="4">
         <v>12</v>
       </c>
-      <c r="M355" s="5">
-        <v>5.2439999999999998</v>
+      <c r="M355" s="7">
+        <v>5244</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15135,8 +15151,8 @@
       <c r="G356" s="4">
         <v>740</v>
       </c>
-      <c r="H356" s="4">
-        <v>1.1379999999999999</v>
+      <c r="H356" s="8">
+        <v>1138</v>
       </c>
       <c r="I356" s="4">
         <v>913</v>
@@ -15150,8 +15166,8 @@
       <c r="L356" s="4">
         <v>15</v>
       </c>
-      <c r="M356" s="5">
-        <v>4.298</v>
+      <c r="M356" s="7">
+        <v>4298</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15165,8 +15181,8 @@
       <c r="D357" s="4">
         <v>58</v>
       </c>
-      <c r="E357" s="4">
-        <v>1.538</v>
+      <c r="E357" s="8">
+        <v>1538</v>
       </c>
       <c r="F357" s="4">
         <v>865</v>
@@ -15189,8 +15205,8 @@
       <c r="L357" s="4">
         <v>7</v>
       </c>
-      <c r="M357" s="5">
-        <v>4.4930000000000003</v>
+      <c r="M357" s="7">
+        <v>4493</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15230,8 +15246,8 @@
       <c r="L358" s="4">
         <v>8</v>
       </c>
-      <c r="M358" s="5">
-        <v>3.8559999999999999</v>
+      <c r="M358" s="7">
+        <v>3856</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15245,8 +15261,8 @@
       <c r="D359" s="4">
         <v>145</v>
       </c>
-      <c r="E359" s="4">
-        <v>1.8720000000000001</v>
+      <c r="E359" s="8">
+        <v>1872</v>
       </c>
       <c r="F359" s="4">
         <v>572</v>
@@ -15269,8 +15285,8 @@
       <c r="L359" s="4">
         <v>16</v>
       </c>
-      <c r="M359" s="5">
-        <v>4.1159999999999997</v>
+      <c r="M359" s="7">
+        <v>4116</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15286,8 +15302,8 @@
       <c r="D360" s="4">
         <v>28</v>
       </c>
-      <c r="E360" s="4">
-        <v>1.226</v>
+      <c r="E360" s="8">
+        <v>1226</v>
       </c>
       <c r="F360" s="4">
         <v>326</v>
@@ -15310,8 +15326,8 @@
       <c r="L360" s="4">
         <v>16</v>
       </c>
-      <c r="M360" s="5">
-        <v>3.524</v>
+      <c r="M360" s="7">
+        <v>3524</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15325,8 +15341,8 @@
       <c r="D361" s="4">
         <v>254</v>
       </c>
-      <c r="E361" s="4">
-        <v>2.0510000000000002</v>
+      <c r="E361" s="8">
+        <v>2051</v>
       </c>
       <c r="F361" s="4">
         <v>297</v>
@@ -15349,8 +15365,8 @@
       <c r="L361" s="4">
         <v>13</v>
       </c>
-      <c r="M361" s="5">
-        <v>3.8650000000000002</v>
+      <c r="M361" s="7">
+        <v>3865</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15366,8 +15382,8 @@
       <c r="D362" s="4">
         <v>44</v>
       </c>
-      <c r="E362" s="4">
-        <v>1.454</v>
+      <c r="E362" s="8">
+        <v>1454</v>
       </c>
       <c r="F362" s="4">
         <v>156</v>
@@ -15390,8 +15406,8 @@
       <c r="L362" s="4">
         <v>14</v>
       </c>
-      <c r="M362" s="5">
-        <v>3.0680000000000001</v>
+      <c r="M362" s="7">
+        <v>3068</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -15405,8 +15421,8 @@
       <c r="D363" s="4">
         <v>385</v>
       </c>
-      <c r="E363" s="4">
-        <v>1.9059999999999999</v>
+      <c r="E363" s="8">
+        <v>1906</v>
       </c>
       <c r="F363" s="4">
         <v>119</v>
@@ -15429,8 +15445,8 @@
       <c r="L363" s="4">
         <v>6</v>
       </c>
-      <c r="M363" s="5">
-        <v>3.4660000000000002</v>
+      <c r="M363" s="7">
+        <v>3466</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15446,8 +15462,8 @@
       <c r="D364" s="4">
         <v>73</v>
       </c>
-      <c r="E364" s="4">
-        <v>1.179</v>
+      <c r="E364" s="8">
+        <v>1179</v>
       </c>
       <c r="F364" s="4">
         <v>41</v>
@@ -15470,8 +15486,8 @@
       <c r="L364" s="4">
         <v>1</v>
       </c>
-      <c r="M364" s="5">
-        <v>2.089</v>
+      <c r="M364" s="7">
+        <v>2089</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -15485,8 +15501,8 @@
       <c r="D365" s="4">
         <v>523</v>
       </c>
-      <c r="E365" s="4">
-        <v>1.1779999999999999</v>
+      <c r="E365" s="8">
+        <v>1178</v>
       </c>
       <c r="F365" s="4">
         <v>34</v>
@@ -15509,8 +15525,8 @@
       <c r="L365" s="4">
         <v>7</v>
       </c>
-      <c r="M365" s="5">
-        <v>2.649</v>
+      <c r="M365" s="7">
+        <v>2649</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15526,8 +15542,8 @@
       <c r="D366" s="4">
         <v>274</v>
       </c>
-      <c r="E366" s="4">
-        <v>1.33</v>
+      <c r="E366" s="8">
+        <v>1330</v>
       </c>
       <c r="F366" s="4">
         <v>23</v>
@@ -15550,8 +15566,8 @@
       <c r="L366" s="4">
         <v>10</v>
       </c>
-      <c r="M366" s="5">
-        <v>2.3069999999999999</v>
+      <c r="M366" s="7">
+        <v>2307</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15559,14 +15575,14 @@
       <c r="B367" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C367" s="4">
-        <v>1.5569999999999999</v>
+      <c r="C367" s="8">
+        <v>1557</v>
       </c>
       <c r="D367" s="4">
         <v>831</v>
       </c>
-      <c r="E367" s="4">
-        <v>1.3120000000000001</v>
+      <c r="E367" s="8">
+        <v>1312</v>
       </c>
       <c r="F367" s="4">
         <v>9</v>
@@ -15589,8 +15605,8 @@
       <c r="L367" s="4">
         <v>10</v>
       </c>
-      <c r="M367" s="5">
-        <v>3.9409999999999998</v>
+      <c r="M367" s="7">
+        <v>3941</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -15598,29 +15614,29 @@
         <v>12</v>
       </c>
       <c r="B368" s="6"/>
-      <c r="C368" s="5">
-        <v>3.3580000000000001</v>
-      </c>
-      <c r="D368" s="5">
-        <v>2.81</v>
-      </c>
-      <c r="E368" s="5">
-        <v>20.678000000000001</v>
-      </c>
-      <c r="F368" s="5">
-        <v>9.8620000000000001</v>
-      </c>
-      <c r="G368" s="5">
-        <v>13.451000000000001</v>
-      </c>
-      <c r="H368" s="5">
-        <v>32.478000000000002</v>
-      </c>
-      <c r="I368" s="5">
-        <v>24.41</v>
-      </c>
-      <c r="J368" s="5">
-        <v>3.1360000000000001</v>
+      <c r="C368" s="7">
+        <v>3358</v>
+      </c>
+      <c r="D368" s="7">
+        <v>2810</v>
+      </c>
+      <c r="E368" s="7">
+        <v>20678</v>
+      </c>
+      <c r="F368" s="7">
+        <v>9862</v>
+      </c>
+      <c r="G368" s="7">
+        <v>13451</v>
+      </c>
+      <c r="H368" s="7">
+        <v>32478</v>
+      </c>
+      <c r="I368" s="7">
+        <v>24410</v>
+      </c>
+      <c r="J368" s="7">
+        <v>3136</v>
       </c>
       <c r="K368" s="5">
         <v>765</v>
@@ -15628,15 +15644,15 @@
       <c r="L368" s="5">
         <v>327</v>
       </c>
-      <c r="M368" s="5">
-        <v>111.27500000000001</v>
+      <c r="M368" s="7">
+        <v>111275</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A369" s="8" t="s">
+      <c r="A369" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B369" s="8"/>
+      <c r="B369" s="11"/>
       <c r="C369" s="2" t="s">
         <v>2</v>
       </c>
@@ -16642,8 +16658,8 @@
       <c r="D394" s="5">
         <v>521</v>
       </c>
-      <c r="E394" s="5">
-        <v>1.254</v>
+      <c r="E394" s="7">
+        <v>1254</v>
       </c>
       <c r="F394" s="5">
         <v>504</v>
@@ -16666,15 +16682,15 @@
       <c r="L394" s="5">
         <v>14</v>
       </c>
-      <c r="M394" s="5">
-        <v>4.3330000000000002</v>
+      <c r="M394" s="7">
+        <v>4333</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A395" s="8" t="s">
+      <c r="A395" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B395" s="8"/>
+      <c r="B395" s="11"/>
       <c r="C395" s="2" t="s">
         <v>2</v>
       </c>
@@ -17680,8 +17696,8 @@
       <c r="D420" s="5">
         <v>572</v>
       </c>
-      <c r="E420" s="5">
-        <v>1.9159999999999999</v>
+      <c r="E420" s="7">
+        <v>1916</v>
       </c>
       <c r="F420" s="5">
         <v>437</v>
@@ -17704,15 +17720,15 @@
       <c r="L420" s="5">
         <v>43</v>
       </c>
-      <c r="M420" s="5">
-        <v>5.1609999999999996</v>
+      <c r="M420" s="7">
+        <v>5161</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B421" s="8"/>
+      <c r="B421" s="11"/>
       <c r="C421" s="2" t="s">
         <v>2</v>
       </c>
@@ -18718,8 +18734,8 @@
       <c r="D446" s="5">
         <v>178</v>
       </c>
-      <c r="E446" s="5">
-        <v>1.27</v>
+      <c r="E446" s="7">
+        <v>1270</v>
       </c>
       <c r="F446" s="5">
         <v>387</v>
@@ -18742,15 +18758,15 @@
       <c r="L446" s="5">
         <v>15</v>
       </c>
-      <c r="M446" s="5">
-        <v>3.5760000000000001</v>
+      <c r="M446" s="7">
+        <v>3576</v>
       </c>
     </row>
     <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A447" s="8" t="s">
+      <c r="A447" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B447" s="8"/>
+      <c r="B447" s="11"/>
       <c r="C447" s="2" t="s">
         <v>2</v>
       </c>
@@ -18775,7 +18791,7 @@
       <c r="J447" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K447" s="2" t="s">
+      <c r="K447" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L447" s="2" t="s">
@@ -18816,8 +18832,8 @@
       <c r="J448" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K448" s="4" t="s">
-        <v>15</v>
+      <c r="K448" s="4">
+        <v>0</v>
       </c>
       <c r="L448" s="4" t="s">
         <v>15</v>
@@ -18855,8 +18871,8 @@
       <c r="J449" s="4">
         <v>1</v>
       </c>
-      <c r="K449" s="4" t="s">
-        <v>15</v>
+      <c r="K449" s="4">
+        <v>0</v>
       </c>
       <c r="L449" s="4" t="s">
         <v>15</v>
@@ -18896,8 +18912,8 @@
       <c r="J450" s="4">
         <v>6</v>
       </c>
-      <c r="K450" s="4" t="s">
-        <v>15</v>
+      <c r="K450" s="4">
+        <v>0</v>
       </c>
       <c r="L450" s="4">
         <v>1</v>
@@ -18935,8 +18951,8 @@
       <c r="J451" s="4">
         <v>6</v>
       </c>
-      <c r="K451" s="4" t="s">
-        <v>15</v>
+      <c r="K451" s="4">
+        <v>0</v>
       </c>
       <c r="L451" s="4" t="s">
         <v>15</v>
@@ -18976,8 +18992,8 @@
       <c r="J452" s="4">
         <v>8</v>
       </c>
-      <c r="K452" s="4" t="s">
-        <v>15</v>
+      <c r="K452" s="4">
+        <v>0</v>
       </c>
       <c r="L452" s="4">
         <v>1</v>
@@ -19015,8 +19031,8 @@
       <c r="J453" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K453" s="4" t="s">
-        <v>15</v>
+      <c r="K453" s="4">
+        <v>0</v>
       </c>
       <c r="L453" s="4" t="s">
         <v>15</v>
@@ -19056,8 +19072,8 @@
       <c r="J454" s="4">
         <v>3</v>
       </c>
-      <c r="K454" s="4" t="s">
-        <v>15</v>
+      <c r="K454" s="4">
+        <v>0</v>
       </c>
       <c r="L454" s="4" t="s">
         <v>15</v>
@@ -19095,8 +19111,8 @@
       <c r="J455" s="4">
         <v>2</v>
       </c>
-      <c r="K455" s="4" t="s">
-        <v>15</v>
+      <c r="K455" s="4">
+        <v>0</v>
       </c>
       <c r="L455" s="4" t="s">
         <v>15</v>
@@ -19136,8 +19152,8 @@
       <c r="J456" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K456" s="4" t="s">
-        <v>15</v>
+      <c r="K456" s="4">
+        <v>0</v>
       </c>
       <c r="L456" s="4" t="s">
         <v>15</v>
@@ -19175,8 +19191,8 @@
       <c r="J457" s="4">
         <v>1</v>
       </c>
-      <c r="K457" s="4" t="s">
-        <v>15</v>
+      <c r="K457" s="4">
+        <v>0</v>
       </c>
       <c r="L457" s="4">
         <v>1</v>
@@ -19216,8 +19232,8 @@
       <c r="J458" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K458" s="4" t="s">
-        <v>15</v>
+      <c r="K458" s="4">
+        <v>0</v>
       </c>
       <c r="L458" s="4" t="s">
         <v>15</v>
@@ -19255,8 +19271,8 @@
       <c r="J459" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K459" s="4" t="s">
-        <v>15</v>
+      <c r="K459" s="4">
+        <v>0</v>
       </c>
       <c r="L459" s="4" t="s">
         <v>15</v>
@@ -19296,8 +19312,8 @@
       <c r="J460" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K460" s="4" t="s">
-        <v>15</v>
+      <c r="K460" s="4">
+        <v>0</v>
       </c>
       <c r="L460" s="4">
         <v>1</v>
@@ -19335,8 +19351,8 @@
       <c r="J461" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K461" s="4" t="s">
-        <v>15</v>
+      <c r="K461" s="4">
+        <v>0</v>
       </c>
       <c r="L461" s="4">
         <v>3</v>
@@ -19376,8 +19392,8 @@
       <c r="J462" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K462" s="4" t="s">
-        <v>15</v>
+      <c r="K462" s="4">
+        <v>0</v>
       </c>
       <c r="L462" s="4">
         <v>2</v>
@@ -19415,8 +19431,8 @@
       <c r="J463" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K463" s="4" t="s">
-        <v>15</v>
+      <c r="K463" s="4">
+        <v>0</v>
       </c>
       <c r="L463" s="4">
         <v>1</v>
@@ -19456,8 +19472,8 @@
       <c r="J464" s="4">
         <v>2</v>
       </c>
-      <c r="K464" s="4" t="s">
-        <v>15</v>
+      <c r="K464" s="4">
+        <v>0</v>
       </c>
       <c r="L464" s="4">
         <v>1</v>
@@ -19495,8 +19511,8 @@
       <c r="J465" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K465" s="4" t="s">
-        <v>15</v>
+      <c r="K465" s="4">
+        <v>0</v>
       </c>
       <c r="L465" s="4">
         <v>3</v>
@@ -19536,8 +19552,8 @@
       <c r="J466" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K466" s="4" t="s">
-        <v>15</v>
+      <c r="K466" s="4">
+        <v>0</v>
       </c>
       <c r="L466" s="4" t="s">
         <v>15</v>
@@ -19575,8 +19591,8 @@
       <c r="J467" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K467" s="4" t="s">
-        <v>15</v>
+      <c r="K467" s="4">
+        <v>0</v>
       </c>
       <c r="L467" s="4">
         <v>3</v>
@@ -19616,8 +19632,8 @@
       <c r="J468" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K468" s="4" t="s">
-        <v>15</v>
+      <c r="K468" s="4">
+        <v>0</v>
       </c>
       <c r="L468" s="4">
         <v>2</v>
@@ -19655,8 +19671,8 @@
       <c r="J469" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K469" s="4" t="s">
-        <v>15</v>
+      <c r="K469" s="4">
+        <v>0</v>
       </c>
       <c r="L469" s="4" t="s">
         <v>15</v>
@@ -19696,8 +19712,8 @@
       <c r="J470" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K470" s="4" t="s">
-        <v>15</v>
+      <c r="K470" s="4">
+        <v>0</v>
       </c>
       <c r="L470" s="4">
         <v>1</v>
@@ -19735,8 +19751,8 @@
       <c r="J471" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K471" s="4" t="s">
-        <v>15</v>
+      <c r="K471" s="4">
+        <v>0</v>
       </c>
       <c r="L471" s="4">
         <v>3</v>
@@ -19756,8 +19772,8 @@
       <c r="D472" s="5">
         <v>393</v>
       </c>
-      <c r="E472" s="5">
-        <v>1.3580000000000001</v>
+      <c r="E472" s="7">
+        <v>1358</v>
       </c>
       <c r="F472" s="5">
         <v>360</v>
@@ -19774,21 +19790,21 @@
       <c r="J472" s="5">
         <v>29</v>
       </c>
-      <c r="K472" s="5">
+      <c r="K472" s="4">
         <v>0</v>
       </c>
       <c r="L472" s="5">
         <v>23</v>
       </c>
-      <c r="M472" s="5">
-        <v>3.6379999999999999</v>
+      <c r="M472" s="7">
+        <v>3638</v>
       </c>
     </row>
     <row r="473" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A473" s="8" t="s">
+      <c r="A473" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B473" s="8"/>
+      <c r="B473" s="11"/>
       <c r="C473" s="2" t="s">
         <v>2</v>
       </c>
@@ -19845,8 +19861,8 @@
       <c r="G474" s="4">
         <v>335</v>
       </c>
-      <c r="H474" s="4">
-        <v>1.087</v>
+      <c r="H474" s="8">
+        <v>1087</v>
       </c>
       <c r="I474" s="4">
         <v>217</v>
@@ -19860,8 +19876,8 @@
       <c r="L474" s="4">
         <v>8</v>
       </c>
-      <c r="M474" s="5">
-        <v>1.655</v>
+      <c r="M474" s="7">
+        <v>1655</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
@@ -19899,8 +19915,8 @@
       <c r="L475" s="4">
         <v>4</v>
       </c>
-      <c r="M475" s="5">
-        <v>1.583</v>
+      <c r="M475" s="7">
+        <v>1583</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
@@ -19940,8 +19956,8 @@
       <c r="L476" s="4">
         <v>1</v>
       </c>
-      <c r="M476" s="5">
-        <v>1.0569999999999999</v>
+      <c r="M476" s="7">
+        <v>1057</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
@@ -20100,8 +20116,8 @@
       <c r="L480" s="4">
         <v>2</v>
       </c>
-      <c r="M480" s="5">
-        <v>1.1339999999999999</v>
+      <c r="M480" s="7">
+        <v>1134</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
@@ -20139,8 +20155,8 @@
       <c r="L481" s="4">
         <v>4</v>
       </c>
-      <c r="M481" s="5">
-        <v>1.1040000000000001</v>
+      <c r="M481" s="7">
+        <v>1104</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
@@ -20180,8 +20196,8 @@
       <c r="L482" s="4">
         <v>4</v>
       </c>
-      <c r="M482" s="5">
-        <v>1.345</v>
+      <c r="M482" s="7">
+        <v>1345</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
@@ -20219,8 +20235,8 @@
       <c r="L483" s="4">
         <v>5</v>
       </c>
-      <c r="M483" s="5">
-        <v>1.2669999999999999</v>
+      <c r="M483" s="7">
+        <v>1267</v>
       </c>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.25">
@@ -20260,8 +20276,8 @@
       <c r="L484" s="4">
         <v>4</v>
       </c>
-      <c r="M484" s="5">
-        <v>1.2110000000000001</v>
+      <c r="M484" s="7">
+        <v>1211</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
@@ -20299,8 +20315,8 @@
       <c r="L485" s="4">
         <v>2</v>
       </c>
-      <c r="M485" s="5">
-        <v>1.2030000000000001</v>
+      <c r="M485" s="7">
+        <v>1203</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
@@ -20340,8 +20356,8 @@
       <c r="L486" s="4">
         <v>2</v>
       </c>
-      <c r="M486" s="5">
-        <v>1.1679999999999999</v>
+      <c r="M486" s="7">
+        <v>1168</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
@@ -20379,8 +20395,8 @@
       <c r="L487" s="4">
         <v>3</v>
       </c>
-      <c r="M487" s="5">
-        <v>1.232</v>
+      <c r="M487" s="7">
+        <v>1232</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.25">
@@ -20420,8 +20436,8 @@
       <c r="L488" s="4">
         <v>4</v>
       </c>
-      <c r="M488" s="5">
-        <v>1.4690000000000001</v>
+      <c r="M488" s="7">
+        <v>1469</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
@@ -20459,8 +20475,8 @@
       <c r="L489" s="4">
         <v>7</v>
       </c>
-      <c r="M489" s="5">
-        <v>1.351</v>
+      <c r="M489" s="7">
+        <v>1351</v>
       </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
@@ -20500,8 +20516,8 @@
       <c r="L490" s="4">
         <v>5</v>
       </c>
-      <c r="M490" s="5">
-        <v>1.4179999999999999</v>
+      <c r="M490" s="7">
+        <v>1418</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
@@ -20515,8 +20531,8 @@
       <c r="D491" s="4">
         <v>176</v>
       </c>
-      <c r="E491" s="4">
-        <v>1.0589999999999999</v>
+      <c r="E491" s="8">
+        <v>1059</v>
       </c>
       <c r="F491" s="4">
         <v>60</v>
@@ -20539,8 +20555,8 @@
       <c r="L491" s="4">
         <v>1</v>
       </c>
-      <c r="M491" s="5">
-        <v>1.59</v>
+      <c r="M491" s="7">
+        <v>1590</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.25">
@@ -20580,8 +20596,8 @@
       <c r="L492" s="4">
         <v>1</v>
       </c>
-      <c r="M492" s="5">
-        <v>1.3740000000000001</v>
+      <c r="M492" s="7">
+        <v>1374</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.25">
@@ -20619,8 +20635,8 @@
       <c r="L493" s="4">
         <v>4</v>
       </c>
-      <c r="M493" s="5">
-        <v>1.5209999999999999</v>
+      <c r="M493" s="7">
+        <v>1521</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
@@ -20699,8 +20715,8 @@
       <c r="L495" s="4">
         <v>6</v>
       </c>
-      <c r="M495" s="5">
-        <v>1.179</v>
+      <c r="M495" s="7">
+        <v>1179</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
@@ -20740,8 +20756,8 @@
       <c r="L496" s="4">
         <v>9</v>
       </c>
-      <c r="M496" s="5">
-        <v>1.2769999999999999</v>
+      <c r="M496" s="7">
+        <v>1277</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
@@ -20779,8 +20795,8 @@
       <c r="L497" s="4">
         <v>16</v>
       </c>
-      <c r="M497" s="5">
-        <v>1.948</v>
+      <c r="M497" s="7">
+        <v>1948</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
@@ -20788,26 +20804,26 @@
         <v>12</v>
       </c>
       <c r="B498" s="6"/>
-      <c r="C498" s="5">
-        <v>1.75</v>
-      </c>
-      <c r="D498" s="5">
-        <v>1.827</v>
-      </c>
-      <c r="E498" s="5">
-        <v>10.914999999999999</v>
-      </c>
-      <c r="F498" s="5">
-        <v>2.9140000000000001</v>
-      </c>
-      <c r="G498" s="5">
-        <v>3.5430000000000001</v>
-      </c>
-      <c r="H498" s="5">
-        <v>6.359</v>
-      </c>
-      <c r="I498" s="5">
-        <v>3.198</v>
+      <c r="C498" s="7">
+        <v>1750</v>
+      </c>
+      <c r="D498" s="7">
+        <v>1827</v>
+      </c>
+      <c r="E498" s="7">
+        <v>10915</v>
+      </c>
+      <c r="F498" s="7">
+        <v>2914</v>
+      </c>
+      <c r="G498" s="7">
+        <v>3543</v>
+      </c>
+      <c r="H498" s="7">
+        <v>6359</v>
+      </c>
+      <c r="I498" s="7">
+        <v>3198</v>
       </c>
       <c r="J498" s="5">
         <v>223</v>
@@ -20818,15 +20834,15 @@
       <c r="L498" s="5">
         <v>103</v>
       </c>
-      <c r="M498" s="5">
-        <v>30.850999999999999</v>
+      <c r="M498" s="7">
+        <v>30851</v>
       </c>
     </row>
     <row r="499" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A499" s="8" t="s">
+      <c r="A499" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B499" s="8"/>
+      <c r="B499" s="11"/>
       <c r="C499" s="2" t="s">
         <v>2</v>
       </c>
@@ -20898,8 +20914,8 @@
       <c r="L500" s="4">
         <v>12</v>
       </c>
-      <c r="M500" s="5">
-        <v>1.4950000000000001</v>
+      <c r="M500" s="7">
+        <v>1495</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
@@ -20937,8 +20953,8 @@
       <c r="L501" s="4">
         <v>2</v>
       </c>
-      <c r="M501" s="5">
-        <v>1.546</v>
+      <c r="M501" s="7">
+        <v>1546</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.25">
@@ -20978,8 +20994,8 @@
       <c r="L502" s="4">
         <v>5</v>
       </c>
-      <c r="M502" s="5">
-        <v>1.1020000000000001</v>
+      <c r="M502" s="7">
+        <v>1102</v>
       </c>
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.25">
@@ -21017,8 +21033,8 @@
       <c r="L503" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M503" s="5">
-        <v>1.0569999999999999</v>
+      <c r="M503" s="7">
+        <v>1057</v>
       </c>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.25">
@@ -21058,8 +21074,8 @@
       <c r="L504" s="4">
         <v>2</v>
       </c>
-      <c r="M504" s="5">
-        <v>1.0129999999999999</v>
+      <c r="M504" s="7">
+        <v>1013</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.25">
@@ -21097,8 +21113,8 @@
       <c r="L505" s="4">
         <v>1</v>
       </c>
-      <c r="M505" s="5">
-        <v>1.07</v>
+      <c r="M505" s="7">
+        <v>1070</v>
       </c>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.25">
@@ -21138,8 +21154,8 @@
       <c r="L506" s="4">
         <v>2</v>
       </c>
-      <c r="M506" s="5">
-        <v>1.194</v>
+      <c r="M506" s="7">
+        <v>1194</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.25">
@@ -21177,8 +21193,8 @@
       <c r="L507" s="4">
         <v>3</v>
       </c>
-      <c r="M507" s="5">
-        <v>1.2230000000000001</v>
+      <c r="M507" s="7">
+        <v>1223</v>
       </c>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.25">
@@ -21218,8 +21234,8 @@
       <c r="L508" s="4">
         <v>2</v>
       </c>
-      <c r="M508" s="5">
-        <v>1.2949999999999999</v>
+      <c r="M508" s="7">
+        <v>1295</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.25">
@@ -21257,8 +21273,8 @@
       <c r="L509" s="4">
         <v>6</v>
       </c>
-      <c r="M509" s="5">
-        <v>1.306</v>
+      <c r="M509" s="7">
+        <v>1306</v>
       </c>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.25">
@@ -21298,8 +21314,8 @@
       <c r="L510" s="4">
         <v>3</v>
       </c>
-      <c r="M510" s="5">
-        <v>1.2490000000000001</v>
+      <c r="M510" s="7">
+        <v>1249</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.25">
@@ -21337,8 +21353,8 @@
       <c r="L511" s="4">
         <v>1</v>
       </c>
-      <c r="M511" s="5">
-        <v>1.3009999999999999</v>
+      <c r="M511" s="7">
+        <v>1301</v>
       </c>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.25">
@@ -21378,8 +21394,8 @@
       <c r="L512" s="4">
         <v>4</v>
       </c>
-      <c r="M512" s="5">
-        <v>1.23</v>
+      <c r="M512" s="7">
+        <v>1230</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.25">
@@ -21417,8 +21433,8 @@
       <c r="L513" s="4">
         <v>5</v>
       </c>
-      <c r="M513" s="5">
-        <v>1.286</v>
+      <c r="M513" s="7">
+        <v>1286</v>
       </c>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.25">
@@ -21458,8 +21474,8 @@
       <c r="L514" s="4">
         <v>3</v>
       </c>
-      <c r="M514" s="5">
-        <v>1.335</v>
+      <c r="M514" s="7">
+        <v>1335</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.25">
@@ -21497,8 +21513,8 @@
       <c r="L515" s="4">
         <v>3</v>
       </c>
-      <c r="M515" s="5">
-        <v>1.429</v>
+      <c r="M515" s="7">
+        <v>1429</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.25">
@@ -21538,8 +21554,8 @@
       <c r="L516" s="4">
         <v>5</v>
       </c>
-      <c r="M516" s="5">
-        <v>1.4610000000000001</v>
+      <c r="M516" s="7">
+        <v>1461</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.25">
@@ -21553,8 +21569,8 @@
       <c r="D517" s="4">
         <v>95</v>
       </c>
-      <c r="E517" s="4">
-        <v>1.163</v>
+      <c r="E517" s="8">
+        <v>1163</v>
       </c>
       <c r="F517" s="4">
         <v>77</v>
@@ -21577,8 +21593,8 @@
       <c r="L517" s="4">
         <v>6</v>
       </c>
-      <c r="M517" s="5">
-        <v>1.534</v>
+      <c r="M517" s="7">
+        <v>1534</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.25">
@@ -21618,8 +21634,8 @@
       <c r="L518" s="4">
         <v>6</v>
       </c>
-      <c r="M518" s="5">
-        <v>1.2390000000000001</v>
+      <c r="M518" s="7">
+        <v>1239</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.25">
@@ -21633,8 +21649,8 @@
       <c r="D519" s="4">
         <v>189</v>
       </c>
-      <c r="E519" s="4">
-        <v>1.0900000000000001</v>
+      <c r="E519" s="8">
+        <v>1090</v>
       </c>
       <c r="F519" s="4">
         <v>15</v>
@@ -21657,8 +21673,8 @@
       <c r="L519" s="4">
         <v>6</v>
       </c>
-      <c r="M519" s="5">
-        <v>1.5</v>
+      <c r="M519" s="7">
+        <v>1500</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.25">
@@ -21698,8 +21714,8 @@
       <c r="L520" s="4">
         <v>10</v>
       </c>
-      <c r="M520" s="5">
-        <v>1.2070000000000001</v>
+      <c r="M520" s="7">
+        <v>1207</v>
       </c>
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.25">
@@ -21737,8 +21753,8 @@
       <c r="L521" s="4">
         <v>7</v>
       </c>
-      <c r="M521" s="5">
-        <v>1.3959999999999999</v>
+      <c r="M521" s="7">
+        <v>1396</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.25">
@@ -21778,8 +21794,8 @@
       <c r="L522" s="4">
         <v>10</v>
       </c>
-      <c r="M522" s="5">
-        <v>1.4390000000000001</v>
+      <c r="M522" s="7">
+        <v>1439</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.25">
@@ -21817,8 +21833,8 @@
       <c r="L523" s="4">
         <v>6</v>
       </c>
-      <c r="M523" s="5">
-        <v>2.1589999999999998</v>
+      <c r="M523" s="7">
+        <v>2159</v>
       </c>
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.25">
@@ -21826,26 +21842,26 @@
         <v>12</v>
       </c>
       <c r="B524" s="6"/>
-      <c r="C524" s="5">
-        <v>1.004</v>
-      </c>
-      <c r="D524" s="5">
-        <v>1.7529999999999999</v>
-      </c>
-      <c r="E524" s="5">
-        <v>11.272</v>
-      </c>
-      <c r="F524" s="5">
-        <v>3.0089999999999999</v>
-      </c>
-      <c r="G524" s="5">
-        <v>3.7330000000000001</v>
-      </c>
-      <c r="H524" s="5">
-        <v>6.6319999999999997</v>
-      </c>
-      <c r="I524" s="5">
-        <v>4.1660000000000004</v>
+      <c r="C524" s="7">
+        <v>1004</v>
+      </c>
+      <c r="D524" s="7">
+        <v>1753</v>
+      </c>
+      <c r="E524" s="7">
+        <v>11272</v>
+      </c>
+      <c r="F524" s="7">
+        <v>3009</v>
+      </c>
+      <c r="G524" s="7">
+        <v>3733</v>
+      </c>
+      <c r="H524" s="7">
+        <v>6632</v>
+      </c>
+      <c r="I524" s="7">
+        <v>4166</v>
       </c>
       <c r="J524" s="5">
         <v>360</v>
@@ -21856,12 +21872,27 @@
       <c r="L524" s="5">
         <v>110</v>
       </c>
-      <c r="M524" s="5">
-        <v>32.066000000000003</v>
+      <c r="M524" s="7">
+        <v>32066</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A525" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A526" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A473:B473"/>
     <mergeCell ref="A499:B499"/>
     <mergeCell ref="A4:M4"/>
@@ -21878,11 +21909,6 @@
     <mergeCell ref="A265:B265"/>
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
